--- a/Single Team/PlannerTasks.xlsx
+++ b/Single Team/PlannerTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3E03FF-A982-4771-9376-7119FA789572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A868E09-F295-4C7F-AD65-02FD85278A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9468" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9468" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="5" r:id="rId1"/>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2118,19 +2118,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2162,20 +2162,20 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5">
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5">
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2186,52 +2186,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5">
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5">
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5">
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5">
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5">
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5">
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5">
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -2252,50 +2252,50 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="34.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="34.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:47">
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:47">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -2448,20 +2448,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5">
       <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2493,20 +2493,20 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="4" width="40.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7">
       <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2546,21 +2546,21 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5">
       <c r="D5" s="1"/>
     </row>
   </sheetData>
@@ -2586,9 +2586,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2724,52 +2727,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F530B1-F3B4-4D56-BB52-37C0F4213D70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="05f9c4cf-3b22-4642-8b3f-b46f9e00fcab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F530B1-F3B4-4D56-BB52-37C0F4213D70}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8039B5D0-6D3B-4FB4-B652-0338149FBDAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E190EAA-270A-42C8-838D-8A23D09DF6DB}"/>
 </file>